--- a/mobilityCAPV.xlsx
+++ b/mobilityCAPV.xlsx
@@ -161,46 +161,46 @@
     <t xml:space="preserve">Q17_7</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18MODE</t>
+    <t xml:space="preserve">CAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_01</t>
+    <t xml:space="preserve">CAR_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_02</t>
+    <t xml:space="preserve">CAR_02</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_03</t>
+    <t xml:space="preserve">CAR_03</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_04</t>
+    <t xml:space="preserve">CAR_04</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_05</t>
+    <t xml:space="preserve">CAR_05</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_06</t>
+    <t xml:space="preserve">CAR_06</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_07</t>
+    <t xml:space="preserve">CAR_07</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_08</t>
+    <t xml:space="preserve">CAR_08</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_09</t>
+    <t xml:space="preserve">CAR_09</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_10</t>
+    <t xml:space="preserve">CAR_10</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_11</t>
+    <t xml:space="preserve">CAR_11</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_12</t>
+    <t xml:space="preserve">CAR_12</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18_13</t>
+    <t xml:space="preserve">CAR_13</t>
   </si>
   <si>
     <t xml:space="preserve">Q18@_13</t>
